--- a/example_data/EPA/label_corrected/083100-00044-20151221_2018-12-08_185929.xlsx
+++ b/example_data/EPA/label_corrected/083100-00044-20151221_2018-12-08_185929.xlsx
@@ -866,7 +866,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>32_Physical_and_Chemical_Hazards</t>
+          <t>32_physical_and_chemical_hazards</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G101" t="inlineStr"/>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G102" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3497,7 +3497,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G116" t="inlineStr"/>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G117" t="inlineStr"/>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G118" t="inlineStr"/>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G119" t="inlineStr"/>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G121" t="inlineStr"/>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G122" t="inlineStr"/>
@@ -3962,7 +3962,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G123" t="inlineStr"/>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G124" t="inlineStr"/>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G125" t="inlineStr"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -4299,7 +4299,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G134" t="inlineStr"/>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G135" t="inlineStr"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G136" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
@@ -4980,7 +4980,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Application Instructions || Use Restrictions</t>
+          <t>use restrictions || application instructions</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5462,7 +5462,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
@@ -5492,7 +5492,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
@@ -5718,7 +5718,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G182" t="inlineStr"/>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G183" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G196" t="inlineStr"/>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
